--- a/examples/PoolingContract/results.xlsx
+++ b/examples/PoolingContract/results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rootnode" sheetId="1" r:id="rId1"/>
+    <sheet name="branchAndBound" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Cross Decomposition</t>
   </si>
@@ -38,21 +39,9 @@
     <t>-----------------</t>
   </si>
   <si>
-    <t>Iteration Value : -1338.2355348924657</t>
-  </si>
-  <si>
-    <t>Iteration Bound : -1354.2667698798525</t>
-  </si>
-  <si>
-    <t>Objective Value : -1338.2355348924657</t>
-  </si>
-  <si>
     <t>Best Bound : -1354.2667698798525</t>
   </si>
   <si>
-    <t>Gap : 1.18 %</t>
-  </si>
-  <si>
     <t>Iteration Time : 1.07 s</t>
   </si>
   <si>
@@ -108,6 +97,36 @@
   </si>
   <si>
     <t>Elapsed Time : 119.47 s</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>active nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gap </t>
+  </si>
+  <si>
+    <t>Number of nodes</t>
+  </si>
+  <si>
+    <t>Iteration Value : -1335.7347667524655</t>
+  </si>
+  <si>
+    <t>Iteration Bound : -1354.2667698798532</t>
+  </si>
+  <si>
+    <t>Objective Value : -1335.736749892465</t>
+  </si>
+  <si>
+    <t>Benders time</t>
+  </si>
+  <si>
+    <t>Lagrangean time</t>
   </si>
 </sst>
 </file>
@@ -150,9 +169,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -464,7 +484,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -475,68 +495,68 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -546,7 +566,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -556,37 +576,37 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +619,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,37 +629,156 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>-1355.1</v>
+      </c>
+      <c r="C3">
+        <v>-1338.88</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <f>-(C3-B3)/B3</f>
+        <v>1.1969596339753377E-2</v>
+      </c>
+      <c r="F3">
+        <v>674</v>
+      </c>
+      <c r="G3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>-1343.34</v>
+      </c>
+      <c r="C4">
+        <v>-1338.88</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <f>-(C4-B4)/B4</f>
+        <v>3.3200827787453731E-3</v>
+      </c>
+      <c r="F4">
+        <v>1368</v>
+      </c>
+      <c r="G4">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>501</v>
+      </c>
+      <c r="B5">
+        <v>-1340.32</v>
+      </c>
+      <c r="C5">
+        <v>-1338.88</v>
+      </c>
+      <c r="D5">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2">
+        <f>-(C5-B5)/B5</f>
+        <v>1.0743702996298102E-3</v>
+      </c>
+      <c r="F5">
+        <v>7631</v>
+      </c>
+      <c r="G5">
+        <v>11455</v>
       </c>
     </row>
   </sheetData>

--- a/examples/PoolingContract/results.xlsx
+++ b/examples/PoolingContract/results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="rootnode" sheetId="1" r:id="rId1"/>
-    <sheet name="branchAndBound" sheetId="2" r:id="rId2"/>
+    <sheet name="branchAndBound" sheetId="2" r:id="rId1"/>
+    <sheet name="DE" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,79 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
-  <si>
-    <t>Cross Decomposition</t>
-  </si>
-  <si>
-    <t>Benders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iteration 12</t>
-  </si>
-  <si>
-    <t>-----------------</t>
-  </si>
-  <si>
-    <t>Best Bound : -1354.2667698798525</t>
-  </si>
-  <si>
-    <t>Iteration Time : 1.07 s</t>
-  </si>
-  <si>
-    <t>Elapsed Time : 15.09 s</t>
-  </si>
-  <si>
-    <t>Lagrangean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iteration 30</t>
-  </si>
-  <si>
-    <t>Iteration Value : -1333.4238050000001</t>
-  </si>
-  <si>
-    <t>Iteration Bound : -1477.423</t>
-  </si>
-  <si>
-    <t>Objective Value : -1333.9087560090584</t>
-  </si>
-  <si>
-    <t>Best Bound : -1477.423</t>
-  </si>
-  <si>
-    <t>Gap : 9.71 %</t>
-  </si>
-  <si>
-    <t>Iteration Time : 25.19 s</t>
-  </si>
-  <si>
-    <t>Elapsed Time : 558.68 s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iteration 26</t>
-  </si>
-  <si>
-    <t>Iteration Value : -1335.7347867524695</t>
-  </si>
-  <si>
-    <t>Iteration Bound : -1354.266769879852</t>
-  </si>
-  <si>
-    <t>Objective Value : -1335.7347867524695</t>
-  </si>
-  <si>
-    <t>Best Bound : -1354.266769879852</t>
-  </si>
-  <si>
-    <t>Gap : 1.37 %</t>
-  </si>
-  <si>
-    <t>Iteration Time : 1.22 s</t>
-  </si>
-  <si>
-    <t>Elapsed Time : 119.47 s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>LB</t>
   </si>
@@ -105,28 +34,73 @@
     <t>UB</t>
   </si>
   <si>
-    <t>active nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gap </t>
-  </si>
-  <si>
     <t>Number of nodes</t>
   </si>
   <si>
-    <t>Iteration Value : -1335.7347667524655</t>
-  </si>
-  <si>
-    <t>Iteration Bound : -1354.2667698798532</t>
-  </si>
-  <si>
-    <t>Objective Value : -1335.736749892465</t>
-  </si>
-  <si>
     <t>Benders time</t>
   </si>
   <si>
     <t>Lagrangean time</t>
+  </si>
+  <si>
+    <t>number of scenario</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>Wall Time</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Solver=BARON</t>
+  </si>
+  <si>
+    <t>Stage 1 Binary</t>
+  </si>
+  <si>
+    <t>Stage 1 continuous</t>
+  </si>
+  <si>
+    <t>Demand of all the producuts high, medium, low</t>
+  </si>
+  <si>
+    <t>Demand of all the producuts high, medium, low. Price of feeds high, medium, low</t>
+  </si>
+  <si>
+    <t>Demand of all the producuts high, medium, low.  Price of feeds high, medium, low. Selling price of products high, medium, low</t>
+  </si>
+  <si>
+    <t>Number of scenarios</t>
+  </si>
+  <si>
+    <t>Stage 2 Linear constr per scenario</t>
+  </si>
+  <si>
+    <t>Nonlinear Constr per scenario</t>
+  </si>
+  <si>
+    <t>Stage 2 Binary var per scenario</t>
+  </si>
+  <si>
+    <t>Stage 2 continuous var per scenario</t>
+  </si>
+  <si>
+    <t>Algorithm= Lagrangean cuts + Benders cuts(with lift-and-project cuts)</t>
+  </si>
+  <si>
+    <t>wall time</t>
+  </si>
+  <si>
+    <t>Algorithm=Lagrangean cuts + Benders cuts</t>
+  </si>
+  <si>
+    <t>Algorithm=Lagrangean decomposition</t>
+  </si>
+  <si>
+    <t>&gt;20,000</t>
   </si>
 </sst>
 </file>
@@ -157,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,14 +139,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,217 +442,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1338.88</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1339.82</v>
+      </c>
+      <c r="E3" s="4">
+        <f>(D3-C3)/D3</f>
+        <v>7.0158678031364457E-4</v>
+      </c>
+      <c r="F3" s="3">
+        <f>G3+H3</f>
+        <v>152</v>
+      </c>
+      <c r="G3" s="3">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3">
+        <v>69</v>
+      </c>
+      <c r="I3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-1338.48</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1339.8</v>
+      </c>
+      <c r="E4" s="4">
+        <f>(D4-C4)/D4</f>
+        <v>9.8522167487679973E-4</v>
+      </c>
+      <c r="F4" s="3">
+        <f>G4+H4</f>
+        <v>502</v>
+      </c>
+      <c r="G4" s="3">
+        <v>280</v>
+      </c>
+      <c r="H4" s="3">
+        <v>222</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-1338.58</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-1339.99</v>
+      </c>
+      <c r="E5" s="4">
+        <f>(D5-C5)/D5</f>
+        <v>1.0522466585572146E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <f>G5+H5</f>
+        <v>2113</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1151</v>
+      </c>
+      <c r="H5" s="3">
+        <v>962</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
+      <c r="C10" s="3">
+        <v>-1338.89</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1340.31</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(D10-C10)/D10</f>
+        <v>1.0594563944161018E-3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18267</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1760</v>
+      </c>
+      <c r="I10" s="3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-1338.89</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1344.53</v>
+      </c>
+      <c r="E11" s="4">
+        <f>(D11-C11)/D11</f>
+        <v>4.1947743821260019E-3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>18799</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I11" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-1338.72</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1354.57</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(D12-C12)/D12</f>
+        <v>1.1701130247975306E-2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
+        <v>20005</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1073</v>
+      </c>
+      <c r="I12" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
+      <c r="I17" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -669,119 +760,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-1338.89</v>
+      </c>
+      <c r="D2">
+        <v>-1340.23</v>
+      </c>
+      <c r="E2" s="2">
+        <f>-(C2-D2)/D2</f>
+        <v>9.9982838766474267E-4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>-1338.65</v>
+      </c>
+      <c r="D3">
+        <v>-1339.99</v>
+      </c>
+      <c r="E3" s="2">
+        <f>-(C3-D3)/D3</f>
+        <v>1.0000074627421981E-3</v>
+      </c>
+      <c r="F3">
+        <v>194</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>-1355.1</v>
-      </c>
-      <c r="C3">
-        <v>-1338.88</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <f>-(C3-B3)/B3</f>
-        <v>1.1969596339753377E-2</v>
-      </c>
-      <c r="F3">
-        <v>674</v>
-      </c>
-      <c r="G3">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4">
-        <v>-1343.34</v>
-      </c>
       <c r="C4">
-        <v>-1338.88</v>
+        <v>-1333.84</v>
       </c>
       <c r="D4">
+        <v>-1339.68</v>
+      </c>
+      <c r="E4" s="2">
+        <f>-(C4-D4)/D4</f>
+        <v>4.3592499701422321E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <f>-(C4-B4)/B4</f>
-        <v>3.3200827787453731E-3</v>
-      </c>
-      <c r="F4">
-        <v>1368</v>
-      </c>
-      <c r="G4">
-        <v>4121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>501</v>
-      </c>
-      <c r="B5">
-        <v>-1340.32</v>
-      </c>
-      <c r="C5">
-        <v>-1338.88</v>
-      </c>
-      <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2">
-        <f>-(C5-B5)/B5</f>
-        <v>1.0743702996298102E-3</v>
-      </c>
-      <c r="F5">
-        <v>7631</v>
-      </c>
-      <c r="G5">
-        <v>11455</v>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>112</v>
+      </c>
+      <c r="E14">
+        <v>116</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>